--- a/src/test/resources/testDataFiles/testData.xlsx
+++ b/src/test/resources/testDataFiles/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_practice\src\test\resources\testDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-Shaft\automation_practice\src\test\resources\testDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C510710-7CFB-4B3F-BC08-209880C40275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01194E36-B38B-4DEF-944D-71755B60D4DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>loginEmail</t>
   </si>
 </sst>
 </file>
@@ -368,29 +368,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -399,5 +399,6 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{104EF8D2-9266-4B0A-AF7D-6C89E559EC5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>